--- a/dades/1S2.xlsx
+++ b/dades/1S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19372600-5FBE-4112-9F70-8B0000025F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11358939-7DDC-43F8-9C0C-B08853C64DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="270">
   <si>
     <t>departure</t>
   </si>
@@ -738,6 +738,114 @@
   </si>
   <si>
     <t>Mataró</t>
+  </si>
+  <si>
+    <t>R1B.001</t>
+  </si>
+  <si>
+    <t>R1B.002</t>
+  </si>
+  <si>
+    <t>Calella</t>
+  </si>
+  <si>
+    <t>R1B</t>
+  </si>
+  <si>
+    <t>R1B.003</t>
+  </si>
+  <si>
+    <t>R1B.004</t>
+  </si>
+  <si>
+    <t>R1B.005</t>
+  </si>
+  <si>
+    <t>R1B.006</t>
+  </si>
+  <si>
+    <t>R1B.007</t>
+  </si>
+  <si>
+    <t>R1B.008</t>
+  </si>
+  <si>
+    <t>R1B.009</t>
+  </si>
+  <si>
+    <t>R1B.010</t>
+  </si>
+  <si>
+    <t>R1B.011</t>
+  </si>
+  <si>
+    <t>R1B.012</t>
+  </si>
+  <si>
+    <t>R1B.013</t>
+  </si>
+  <si>
+    <t>R1B.014</t>
+  </si>
+  <si>
+    <t>R1B.015</t>
+  </si>
+  <si>
+    <t>R1B.016</t>
+  </si>
+  <si>
+    <t>R9B.001</t>
+  </si>
+  <si>
+    <t>R9B</t>
+  </si>
+  <si>
+    <t>R9B.002</t>
+  </si>
+  <si>
+    <t>Vilafranca del Penedès</t>
+  </si>
+  <si>
+    <t>R9B.003</t>
+  </si>
+  <si>
+    <t>R9B.004</t>
+  </si>
+  <si>
+    <t>R9B.005</t>
+  </si>
+  <si>
+    <t>R9B.006</t>
+  </si>
+  <si>
+    <t>R9B.007</t>
+  </si>
+  <si>
+    <t>R9B.008</t>
+  </si>
+  <si>
+    <t>R9B.009</t>
+  </si>
+  <si>
+    <t>R9B.010</t>
+  </si>
+  <si>
+    <t>R9B.011</t>
+  </si>
+  <si>
+    <t>R9B.012</t>
+  </si>
+  <si>
+    <t>R9B.013</t>
+  </si>
+  <si>
+    <t>R9B.014</t>
+  </si>
+  <si>
+    <t>R9B.015</t>
+  </si>
+  <si>
+    <t>R9B.016</t>
   </si>
 </sst>
 </file>
@@ -788,11 +896,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1014"/>
+  <dimension ref="A1:J1158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A973" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1012" sqref="E1012"/>
+    <sheetView tabSelected="1" topLeftCell="A1117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1150" sqref="J1150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5732,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="B263" s="1">
-        <f t="shared" ref="B263:B294" si="7">B167+(1/24)</f>
+        <f t="shared" ref="B263:B291" si="7">B167+(1/24)</f>
         <v>0.58621527777777771</v>
       </c>
       <c r="C263" t="s">
@@ -18310,7 +18419,7 @@
         <v>35</v>
       </c>
       <c r="B964" s="1">
-        <f t="shared" ref="B964:B1015" si="21">B784+(0.5/24)</f>
+        <f t="shared" ref="B964:B1014" si="21">B784+(0.5/24)</f>
         <v>0.54620370370370375</v>
       </c>
       <c r="C964" t="s">
@@ -19221,6 +19330,2583 @@
       </c>
       <c r="E1014" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1015" s="1">
+        <v>0.29870370370370369</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1016" s="1">
+        <v>0.30093750000000002</v>
+      </c>
+      <c r="C1016" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1017" s="1">
+        <v>0.30302083333333335</v>
+      </c>
+      <c r="C1017" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1018" s="1">
+        <v>0.30571759259259262</v>
+      </c>
+      <c r="C1018" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1019" s="1">
+        <v>0.30971064814814814</v>
+      </c>
+      <c r="C1019" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1020" s="1">
+        <v>0.31280092592592595</v>
+      </c>
+      <c r="C1020" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1021" s="1">
+        <v>0.31489583333333332</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1022" s="1">
+        <v>0.31681712962962966</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1023" s="1">
+        <f>B1015+(2/24)</f>
+        <v>0.38203703703703701</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1024" s="1">
+        <f t="shared" ref="B1024:B1078" si="22">B1016+(2/24)</f>
+        <v>0.38427083333333334</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1025" s="1">
+        <f t="shared" si="22"/>
+        <v>0.38635416666666667</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1026" s="1">
+        <f t="shared" si="22"/>
+        <v>0.38905092592592594</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1027" s="1">
+        <f t="shared" si="22"/>
+        <v>0.39304398148148145</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1028" s="1">
+        <f t="shared" si="22"/>
+        <v>0.39613425925925927</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1029" s="1">
+        <f t="shared" si="22"/>
+        <v>0.39822916666666663</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1030" s="1">
+        <f t="shared" si="22"/>
+        <v>0.40015046296296297</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1031" s="1">
+        <f t="shared" si="22"/>
+        <v>0.46537037037037032</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1032" s="1">
+        <f t="shared" si="22"/>
+        <v>0.46760416666666665</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1033" s="1">
+        <f t="shared" si="22"/>
+        <v>0.46968749999999998</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1034" s="1">
+        <f t="shared" si="22"/>
+        <v>0.47238425925925925</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1035" s="1">
+        <f t="shared" si="22"/>
+        <v>0.47637731481481477</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1036" s="1">
+        <f t="shared" si="22"/>
+        <v>0.47946759259259258</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1037" s="1">
+        <f t="shared" si="22"/>
+        <v>0.48156249999999995</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1038" s="1">
+        <f t="shared" si="22"/>
+        <v>0.48348379629629629</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1039" s="1">
+        <f t="shared" si="22"/>
+        <v>0.54870370370370369</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1040" s="1">
+        <f t="shared" si="22"/>
+        <v>0.55093749999999997</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1041" s="1">
+        <f t="shared" si="22"/>
+        <v>0.55302083333333329</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1042" s="1">
+        <f t="shared" si="22"/>
+        <v>0.55571759259259257</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1043" s="1">
+        <f t="shared" si="22"/>
+        <v>0.55971064814814808</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1044" s="1">
+        <f t="shared" si="22"/>
+        <v>0.5628009259259259</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1045" s="1">
+        <f t="shared" si="22"/>
+        <v>0.56489583333333326</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1046" s="1">
+        <f t="shared" si="22"/>
+        <v>0.5668171296296296</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1047" s="1">
+        <f t="shared" si="22"/>
+        <v>0.63203703703703706</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1048" s="1">
+        <f t="shared" si="22"/>
+        <v>0.63427083333333334</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1049" s="1">
+        <f t="shared" si="22"/>
+        <v>0.63635416666666667</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1050" s="1">
+        <f t="shared" si="22"/>
+        <v>0.63905092592592594</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1051" s="1">
+        <f t="shared" si="22"/>
+        <v>0.64304398148148145</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1052" s="1">
+        <f t="shared" si="22"/>
+        <v>0.64613425925925927</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1053" s="1">
+        <f t="shared" si="22"/>
+        <v>0.64822916666666663</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1054" s="1">
+        <f t="shared" si="22"/>
+        <v>0.65015046296296297</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1055" s="1">
+        <f t="shared" si="22"/>
+        <v>0.71537037037037043</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1056" s="1">
+        <f t="shared" si="22"/>
+        <v>0.71760416666666671</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1057" s="1">
+        <f t="shared" si="22"/>
+        <v>0.71968750000000004</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1058" s="1">
+        <f t="shared" si="22"/>
+        <v>0.72238425925925931</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1059" s="1">
+        <f t="shared" si="22"/>
+        <v>0.72637731481481482</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1060" s="1">
+        <f t="shared" si="22"/>
+        <v>0.72946759259259264</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1061" s="1">
+        <f t="shared" si="22"/>
+        <v>0.7315625</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1062" s="1">
+        <f t="shared" si="22"/>
+        <v>0.73348379629629634</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1063" s="1">
+        <f t="shared" si="22"/>
+        <v>0.7987037037037038</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1063" s="4"/>
+    </row>
+    <row r="1064" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1064" s="1">
+        <f t="shared" si="22"/>
+        <v>0.80093750000000008</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1064" s="4"/>
+    </row>
+    <row r="1065" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1065" s="1">
+        <f t="shared" si="22"/>
+        <v>0.80302083333333341</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1065" s="4"/>
+    </row>
+    <row r="1066" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1066" s="1">
+        <f t="shared" si="22"/>
+        <v>0.80571759259259268</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1067" s="1">
+        <f t="shared" si="22"/>
+        <v>0.80971064814814819</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1068" s="1">
+        <f t="shared" si="22"/>
+        <v>0.81280092592592601</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1069" s="1">
+        <f t="shared" si="22"/>
+        <v>0.81489583333333337</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1070" s="1">
+        <f t="shared" si="22"/>
+        <v>0.81681712962962971</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1071" s="1">
+        <f t="shared" si="22"/>
+        <v>0.88203703703703717</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1072" s="1">
+        <f t="shared" si="22"/>
+        <v>0.88427083333333345</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1073" s="1">
+        <f t="shared" si="22"/>
+        <v>0.88635416666666678</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1074" s="1">
+        <f t="shared" si="22"/>
+        <v>0.88905092592592605</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1075" s="1">
+        <f t="shared" si="22"/>
+        <v>0.89304398148148156</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1076" s="1">
+        <f t="shared" si="22"/>
+        <v>0.89613425925925938</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1077" s="1">
+        <f t="shared" si="22"/>
+        <v>0.89822916666666675</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1078" s="1">
+        <f t="shared" si="22"/>
+        <v>0.90015046296296308</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1079" s="1">
+        <v>0.28356481481481483</v>
+      </c>
+      <c r="C1079" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1080" s="1">
+        <v>0.28430555555555553</v>
+      </c>
+      <c r="C1080" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1081" s="1">
+        <v>0.28741898148148148</v>
+      </c>
+      <c r="C1081" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1082" s="1">
+        <v>0.2895138888888889</v>
+      </c>
+      <c r="C1082" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1083" s="1">
+        <v>0.2913310185185185</v>
+      </c>
+      <c r="C1083" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1084" s="1">
+        <v>0.30876157407407406</v>
+      </c>
+      <c r="C1084" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1085" s="1">
+        <v>0.31099537037037034</v>
+      </c>
+      <c r="C1085" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1086" s="1">
+        <v>0.31307870370370372</v>
+      </c>
+      <c r="C1086" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1087" s="1">
+        <v>0.31618055555555552</v>
+      </c>
+      <c r="C1087" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>0.31659722222222225</v>
+      </c>
+      <c r="C1088" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1089" s="1">
+        <f>B1079+(2/24)</f>
+        <v>0.36689814814814814</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1090" s="1">
+        <f t="shared" ref="B1090:B1153" si="23">B1080+(2/24)</f>
+        <v>0.36763888888888885</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1091" s="1">
+        <f t="shared" si="23"/>
+        <v>0.3707523148148148</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1092" s="1">
+        <f t="shared" si="23"/>
+        <v>0.37284722222222222</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1093" s="1">
+        <f t="shared" si="23"/>
+        <v>0.37466435185185182</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1094" s="1">
+        <f t="shared" si="23"/>
+        <v>0.39209490740740738</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1095" s="1">
+        <f t="shared" si="23"/>
+        <v>0.39432870370370365</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1096" s="1">
+        <f t="shared" si="23"/>
+        <v>0.39641203703703703</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1097" s="1">
+        <f t="shared" si="23"/>
+        <v>0.39951388888888884</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1098" s="1">
+        <f t="shared" si="23"/>
+        <v>0.39993055555555557</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1099" s="1">
+        <f t="shared" si="23"/>
+        <v>0.45023148148148145</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1100" s="1">
+        <f t="shared" si="23"/>
+        <v>0.45097222222222216</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1101" s="1">
+        <f t="shared" si="23"/>
+        <v>0.45408564814814811</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1102" s="1">
+        <f t="shared" si="23"/>
+        <v>0.45618055555555553</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1103" s="1">
+        <f t="shared" si="23"/>
+        <v>0.45799768518518513</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1104" s="1">
+        <f t="shared" si="23"/>
+        <v>0.47542824074074069</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1105" s="1">
+        <f t="shared" si="23"/>
+        <v>0.47766203703703697</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1106" s="1">
+        <f t="shared" si="23"/>
+        <v>0.47974537037037035</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1107" s="1">
+        <f t="shared" si="23"/>
+        <v>0.48284722222222215</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1108" s="1">
+        <f t="shared" si="23"/>
+        <v>0.48326388888888888</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1109" s="1">
+        <f t="shared" si="23"/>
+        <v>0.53356481481481477</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1110" s="1">
+        <f t="shared" si="23"/>
+        <v>0.53430555555555548</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1111" s="1">
+        <f t="shared" si="23"/>
+        <v>0.53741898148148148</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1112" s="1">
+        <f t="shared" si="23"/>
+        <v>0.53951388888888885</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1113" s="1">
+        <f t="shared" si="23"/>
+        <v>0.5413310185185185</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1114" s="1">
+        <f t="shared" si="23"/>
+        <v>0.55876157407407401</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1115" s="1">
+        <f t="shared" si="23"/>
+        <v>0.56099537037037028</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1116" s="1">
+        <f t="shared" si="23"/>
+        <v>0.56307870370370372</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1117" s="1">
+        <f t="shared" si="23"/>
+        <v>0.56618055555555546</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1118" s="1">
+        <f t="shared" si="23"/>
+        <v>0.5665972222222222</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1119" s="1">
+        <f t="shared" si="23"/>
+        <v>0.61689814814814814</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1120" s="1">
+        <f t="shared" si="23"/>
+        <v>0.61763888888888885</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1121" s="1">
+        <f t="shared" si="23"/>
+        <v>0.62075231481481485</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1122" s="1">
+        <f t="shared" si="23"/>
+        <v>0.62284722222222222</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1123" s="1">
+        <f t="shared" si="23"/>
+        <v>0.62466435185185187</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1124" s="1">
+        <f t="shared" si="23"/>
+        <v>0.64209490740740738</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1125" s="1">
+        <f t="shared" si="23"/>
+        <v>0.64432870370370365</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1126" s="1">
+        <f t="shared" si="23"/>
+        <v>0.64641203703703709</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1127" s="1">
+        <f t="shared" si="23"/>
+        <v>0.64951388888888884</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1128" s="1">
+        <f t="shared" si="23"/>
+        <v>0.64993055555555557</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1129" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70023148148148151</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1130" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70097222222222222</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1131" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70408564814814822</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1132" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70618055555555559</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1133" s="1">
+        <f t="shared" si="23"/>
+        <v>0.70799768518518524</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1134" s="1">
+        <f t="shared" si="23"/>
+        <v>0.72542824074074075</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1135" s="1">
+        <f t="shared" si="23"/>
+        <v>0.72766203703703702</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1136" s="1">
+        <f t="shared" si="23"/>
+        <v>0.72974537037037046</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1137" s="1">
+        <f t="shared" si="23"/>
+        <v>0.73284722222222221</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1138" s="1">
+        <f t="shared" si="23"/>
+        <v>0.73326388888888894</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1139" s="1">
+        <f t="shared" si="23"/>
+        <v>0.78356481481481488</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1140" s="1">
+        <f t="shared" si="23"/>
+        <v>0.78430555555555559</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1141" s="1">
+        <f t="shared" si="23"/>
+        <v>0.78741898148148159</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1142" s="1">
+        <f t="shared" si="23"/>
+        <v>0.78951388888888896</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1143" s="1">
+        <f t="shared" si="23"/>
+        <v>0.79133101851851861</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1144" s="1">
+        <f t="shared" si="23"/>
+        <v>0.80876157407407412</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1145" s="1">
+        <f t="shared" si="23"/>
+        <v>0.81099537037037039</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1146" s="1">
+        <f t="shared" si="23"/>
+        <v>0.81307870370370383</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1147" s="1">
+        <f t="shared" si="23"/>
+        <v>0.81618055555555558</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1148" s="1">
+        <f t="shared" si="23"/>
+        <v>0.81659722222222231</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1149" s="1">
+        <f t="shared" si="23"/>
+        <v>0.86689814814814825</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1150" s="1">
+        <f t="shared" si="23"/>
+        <v>0.86763888888888896</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1151" s="1">
+        <f t="shared" si="23"/>
+        <v>0.87075231481481496</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1152" s="1">
+        <f t="shared" si="23"/>
+        <v>0.87284722222222233</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1153" s="1">
+        <f t="shared" si="23"/>
+        <v>0.87466435185185198</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1154" s="1">
+        <f t="shared" ref="B1154:B1158" si="24">B1144+(2/24)</f>
+        <v>0.89209490740740749</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1155" s="1">
+        <f t="shared" si="24"/>
+        <v>0.89432870370370376</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1156" s="1">
+        <f t="shared" si="24"/>
+        <v>0.8964120370370372</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1157" s="1">
+        <f t="shared" si="24"/>
+        <v>0.89951388888888895</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1158" s="1">
+        <f t="shared" si="24"/>
+        <v>0.89993055555555568</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/dades/1S2.xlsx
+++ b/dades/1S2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11358939-7DDC-43F8-9C0C-B08853C64DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A8A79-70F3-4F25-8BB6-C6EB45793FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4618" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6090" uniqueCount="366">
   <si>
     <t>departure</t>
   </si>
@@ -846,6 +846,294 @@
   </si>
   <si>
     <t>R9B.016</t>
+  </si>
+  <si>
+    <t>R4A</t>
+  </si>
+  <si>
+    <t>Manresa Central</t>
+  </si>
+  <si>
+    <t>R4A.001</t>
+  </si>
+  <si>
+    <t>R4A.002</t>
+  </si>
+  <si>
+    <t>R4A.003</t>
+  </si>
+  <si>
+    <t>R4A.004</t>
+  </si>
+  <si>
+    <t>R4A.005</t>
+  </si>
+  <si>
+    <t>R4A.006</t>
+  </si>
+  <si>
+    <t>R4A.007</t>
+  </si>
+  <si>
+    <t>R4A.008</t>
+  </si>
+  <si>
+    <t>R4A.009</t>
+  </si>
+  <si>
+    <t>R4A.010</t>
+  </si>
+  <si>
+    <t>R4A.011</t>
+  </si>
+  <si>
+    <t>R4A.012</t>
+  </si>
+  <si>
+    <t>R4A.013</t>
+  </si>
+  <si>
+    <t>R4A.014</t>
+  </si>
+  <si>
+    <t>R4A.015</t>
+  </si>
+  <si>
+    <t>R4A.016</t>
+  </si>
+  <si>
+    <t>R4A.017</t>
+  </si>
+  <si>
+    <t>R4A.018</t>
+  </si>
+  <si>
+    <t>R4A.019</t>
+  </si>
+  <si>
+    <t>R4A.020</t>
+  </si>
+  <si>
+    <t>R4A.021</t>
+  </si>
+  <si>
+    <t>R4A.022</t>
+  </si>
+  <si>
+    <t>R4A.023</t>
+  </si>
+  <si>
+    <t>R4A.024</t>
+  </si>
+  <si>
+    <t>R4A.025</t>
+  </si>
+  <si>
+    <t>R4A.026</t>
+  </si>
+  <si>
+    <t>R4A.027</t>
+  </si>
+  <si>
+    <t>R4A.028</t>
+  </si>
+  <si>
+    <t>R4A.029</t>
+  </si>
+  <si>
+    <t>R4A.030</t>
+  </si>
+  <si>
+    <t>R4A.031</t>
+  </si>
+  <si>
+    <t>R4A.032</t>
+  </si>
+  <si>
+    <t>R4A.033</t>
+  </si>
+  <si>
+    <t>R4A.034</t>
+  </si>
+  <si>
+    <t>R4A.035</t>
+  </si>
+  <si>
+    <t>R4A.036</t>
+  </si>
+  <si>
+    <t>R4A.037</t>
+  </si>
+  <si>
+    <t>R4A.038</t>
+  </si>
+  <si>
+    <t>R4A.039</t>
+  </si>
+  <si>
+    <t>R4A.040</t>
+  </si>
+  <si>
+    <t>R4A.041</t>
+  </si>
+  <si>
+    <t>R4A.042</t>
+  </si>
+  <si>
+    <t>R4A.043</t>
+  </si>
+  <si>
+    <t>R4A.044</t>
+  </si>
+  <si>
+    <t>R4A.045</t>
+  </si>
+  <si>
+    <t>R4A.046</t>
+  </si>
+  <si>
+    <t>R4A.047</t>
+  </si>
+  <si>
+    <t>R4A.048</t>
+  </si>
+  <si>
+    <t>R4A.049</t>
+  </si>
+  <si>
+    <t>R4A.050</t>
+  </si>
+  <si>
+    <t>R4A.051</t>
+  </si>
+  <si>
+    <t>R4A.052</t>
+  </si>
+  <si>
+    <t>R4A.053</t>
+  </si>
+  <si>
+    <t>R4A.054</t>
+  </si>
+  <si>
+    <t>R4A.055</t>
+  </si>
+  <si>
+    <t>R4A.056</t>
+  </si>
+  <si>
+    <t>R4A.057</t>
+  </si>
+  <si>
+    <t>R4A.058</t>
+  </si>
+  <si>
+    <t>R4A.059</t>
+  </si>
+  <si>
+    <t>R4A.060</t>
+  </si>
+  <si>
+    <t>R4A.061</t>
+  </si>
+  <si>
+    <t>R4A.062</t>
+  </si>
+  <si>
+    <t>R4A.063</t>
+  </si>
+  <si>
+    <t>R4A.064</t>
+  </si>
+  <si>
+    <t>R4A.065</t>
+  </si>
+  <si>
+    <t>R4A.066</t>
+  </si>
+  <si>
+    <t>R4A.067</t>
+  </si>
+  <si>
+    <t>R4A.068</t>
+  </si>
+  <si>
+    <t>R4A.069</t>
+  </si>
+  <si>
+    <t>R4A.070</t>
+  </si>
+  <si>
+    <t>R4B</t>
+  </si>
+  <si>
+    <t>R4B.001</t>
+  </si>
+  <si>
+    <t>R4B.002</t>
+  </si>
+  <si>
+    <t>Terrassa Estació del Nord</t>
+  </si>
+  <si>
+    <t>R4B.003</t>
+  </si>
+  <si>
+    <t>R4B.004</t>
+  </si>
+  <si>
+    <t>R4B.005</t>
+  </si>
+  <si>
+    <t>R4B.006</t>
+  </si>
+  <si>
+    <t>R4B.007</t>
+  </si>
+  <si>
+    <t>R4B.008</t>
+  </si>
+  <si>
+    <t>R4B.009</t>
+  </si>
+  <si>
+    <t>R4B.010</t>
+  </si>
+  <si>
+    <t>R4B.011</t>
+  </si>
+  <si>
+    <t>R4B.012</t>
+  </si>
+  <si>
+    <t>R4B.013</t>
+  </si>
+  <si>
+    <t>R4B.014</t>
+  </si>
+  <si>
+    <t>R4B.015</t>
+  </si>
+  <si>
+    <t>R4B.016</t>
+  </si>
+  <si>
+    <t>R4B.017</t>
+  </si>
+  <si>
+    <t>R4B.018</t>
+  </si>
+  <si>
+    <t>R4B.019</t>
+  </si>
+  <si>
+    <t>R4B.020</t>
+  </si>
+  <si>
+    <t>R4B.021</t>
+  </si>
+  <si>
+    <t>R4B.022</t>
   </si>
 </sst>
 </file>
@@ -906,7 +1194,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -917,6 +1209,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B167DEB7-184B-4272-9C55-22A368564F14}" name="Taula1" displayName="Taula1" ref="A1:E1526" totalsRowShown="0">
+  <autoFilter ref="A1:E1526" xr:uid="{B167DEB7-184B-4272-9C55-22A368564F14}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F33FB696-DC67-43C7-8C2D-A420684EC563}" name="station"/>
+    <tableColumn id="2" xr3:uid="{23C98BF0-E56E-497E-B178-FACC88F8679C}" name="departure" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{8041AB5D-52B0-498D-B5A8-807F779226D8}" name="train_number"/>
+    <tableColumn id="4" xr3:uid="{B774B1EF-7BCE-4006-B5F2-C152026369EA}" name="service_code"/>
+    <tableColumn id="5" xr3:uid="{69BD4C02-E8B0-4E60-BEAB-2EBA8E508EC3}" name="destination"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,19 +1488,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1158"/>
+  <dimension ref="A1:J1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1150" sqref="J1150"/>
+    <sheetView tabSelected="1" topLeftCell="A1418" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1447" sqref="B1447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -21909,8 +22215,6611 @@
         <v>255</v>
       </c>
     </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C1159" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>0.21151620370370372</v>
+      </c>
+      <c r="C1160" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>0.21365740740740743</v>
+      </c>
+      <c r="C1161" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>0.21562499999999998</v>
+      </c>
+      <c r="C1162" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>0.29814814814814816</v>
+      </c>
+      <c r="C1163" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>0.30052083333333335</v>
+      </c>
+      <c r="C1164" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>0.30260416666666667</v>
+      </c>
+      <c r="C1165" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>0.30538194444444444</v>
+      </c>
+      <c r="C1166" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1167" s="1">
+        <f>B1159+(2.5/24)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1168" s="1">
+        <f t="shared" ref="B1168:B1231" si="25">B1160+(2.5/24)</f>
+        <v>0.31568287037037041</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1169" s="1">
+        <f t="shared" si="25"/>
+        <v>0.31782407407407409</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1170" s="1">
+        <f t="shared" si="25"/>
+        <v>0.31979166666666664</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1171" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40231481481481485</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1172" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40468750000000003</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1173" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40677083333333336</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1174" s="1">
+        <f t="shared" si="25"/>
+        <v>0.40954861111111113</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1175" s="1">
+        <f t="shared" si="25"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1176" s="1">
+        <f t="shared" si="25"/>
+        <v>0.41984953703703709</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1177" s="1">
+        <f t="shared" si="25"/>
+        <v>0.42199074074074078</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1178" s="1">
+        <f t="shared" si="25"/>
+        <v>0.42395833333333333</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1179" s="1">
+        <f t="shared" si="25"/>
+        <v>0.50648148148148153</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1180" s="1">
+        <f t="shared" si="25"/>
+        <v>0.50885416666666672</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1181" s="1">
+        <f t="shared" si="25"/>
+        <v>0.51093750000000004</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1182" s="1">
+        <f t="shared" si="25"/>
+        <v>0.51371527777777781</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1183" s="1">
+        <f t="shared" si="25"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1184" s="1">
+        <f t="shared" si="25"/>
+        <v>0.52401620370370372</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1185" s="1">
+        <f t="shared" si="25"/>
+        <v>0.52615740740740746</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1186" s="1">
+        <f t="shared" si="25"/>
+        <v>0.52812499999999996</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1187" s="1">
+        <f t="shared" si="25"/>
+        <v>0.61064814814814816</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1188" s="1">
+        <f t="shared" si="25"/>
+        <v>0.61302083333333335</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1189" s="1">
+        <f t="shared" si="25"/>
+        <v>0.61510416666666667</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1190" s="1">
+        <f t="shared" si="25"/>
+        <v>0.61788194444444444</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1191" s="1">
+        <f t="shared" si="25"/>
+        <v>0.625</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1192" s="1">
+        <f t="shared" si="25"/>
+        <v>0.62818287037037035</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1193" s="1">
+        <f t="shared" si="25"/>
+        <v>0.63032407407407409</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1194" s="1">
+        <f t="shared" si="25"/>
+        <v>0.63229166666666659</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1195" s="1">
+        <f t="shared" si="25"/>
+        <v>0.71481481481481479</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1196" s="1">
+        <f t="shared" si="25"/>
+        <v>0.71718749999999998</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1197" s="1">
+        <f t="shared" si="25"/>
+        <v>0.7192708333333333</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1198" s="1">
+        <f t="shared" si="25"/>
+        <v>0.72204861111111107</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1199" s="1">
+        <f t="shared" si="25"/>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1200" s="1">
+        <f t="shared" si="25"/>
+        <v>0.73234953703703698</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1201" s="1">
+        <f t="shared" si="25"/>
+        <v>0.73449074074074072</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1202" s="1">
+        <f t="shared" si="25"/>
+        <v>0.73645833333333321</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1203" s="1">
+        <f t="shared" si="25"/>
+        <v>0.81898148148148142</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1204" s="1">
+        <f t="shared" si="25"/>
+        <v>0.82135416666666661</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1205" s="1">
+        <f t="shared" si="25"/>
+        <v>0.82343749999999993</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1206" s="1">
+        <f t="shared" si="25"/>
+        <v>0.8262152777777777</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1207" s="1">
+        <f t="shared" si="25"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1208" s="1">
+        <f t="shared" si="25"/>
+        <v>0.83651620370370361</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1209" s="1">
+        <f t="shared" si="25"/>
+        <v>0.83865740740740735</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1210" s="1">
+        <f t="shared" si="25"/>
+        <v>0.84062499999999984</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1211" s="1">
+        <f t="shared" si="25"/>
+        <v>0.92314814814814805</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1212" s="1">
+        <f t="shared" si="25"/>
+        <v>0.92552083333333324</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1213" s="1">
+        <f t="shared" si="25"/>
+        <v>0.92760416666666656</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1214" s="1">
+        <f t="shared" si="25"/>
+        <v>0.93038194444444433</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>0.25648148148148148</v>
+      </c>
+      <c r="C1215" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>0.25885416666666666</v>
+      </c>
+      <c r="C1216" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>0.26093749999999999</v>
+      </c>
+      <c r="C1217" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>0.26371527777777776</v>
+      </c>
+      <c r="C1218" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C1219" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>0.27401620370370372</v>
+      </c>
+      <c r="C1220" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>0.27615740740740741</v>
+      </c>
+      <c r="C1221" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>0.27812500000000001</v>
+      </c>
+      <c r="C1222" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1223" s="1">
+        <f t="shared" si="25"/>
+        <v>0.36064814814814816</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1224" s="1">
+        <f t="shared" si="25"/>
+        <v>0.36302083333333335</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1225" s="1">
+        <f t="shared" si="25"/>
+        <v>0.36510416666666667</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1226" s="1">
+        <f t="shared" si="25"/>
+        <v>0.36788194444444444</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1227" s="1">
+        <f t="shared" si="25"/>
+        <v>0.375</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1228" s="1">
+        <f t="shared" si="25"/>
+        <v>0.37818287037037041</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1229" s="1">
+        <f t="shared" si="25"/>
+        <v>0.38032407407407409</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1230" s="1">
+        <f t="shared" si="25"/>
+        <v>0.3822916666666667</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1231" s="1">
+        <f t="shared" si="25"/>
+        <v>0.46481481481481485</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1232" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1232" s="1">
+        <f t="shared" ref="B1232:B1270" si="26">B1224+(2.5/24)</f>
+        <v>0.46718750000000003</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1233" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1233" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46927083333333336</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1234" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1234" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47204861111111113</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1235" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1235" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1236" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1236" s="1">
+        <f t="shared" si="26"/>
+        <v>0.48234953703703709</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1237" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1237" s="1">
+        <f t="shared" si="26"/>
+        <v>0.48449074074074078</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1238" s="1">
+        <f t="shared" si="26"/>
+        <v>0.48645833333333338</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1239" s="1">
+        <f t="shared" si="26"/>
+        <v>0.56898148148148153</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1240" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1240" s="1">
+        <f t="shared" si="26"/>
+        <v>0.57135416666666672</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1241" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1241" s="1">
+        <f t="shared" si="26"/>
+        <v>0.57343750000000004</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1242" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1242" s="1">
+        <f t="shared" si="26"/>
+        <v>0.57621527777777781</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1243" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1243" s="1">
+        <f t="shared" si="26"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1244" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1244" s="1">
+        <f t="shared" si="26"/>
+        <v>0.58651620370370372</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1245" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1245" s="1">
+        <f t="shared" si="26"/>
+        <v>0.58865740740740746</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1246" s="1">
+        <f t="shared" si="26"/>
+        <v>0.59062500000000007</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1247" s="1">
+        <f t="shared" si="26"/>
+        <v>0.67314814814814816</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1248" s="1">
+        <f t="shared" si="26"/>
+        <v>0.67552083333333335</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1249" s="1">
+        <f t="shared" si="26"/>
+        <v>0.67760416666666667</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1250" s="1">
+        <f t="shared" si="26"/>
+        <v>0.68038194444444444</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1251" s="1">
+        <f t="shared" si="26"/>
+        <v>0.6875</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1252" s="1">
+        <f t="shared" si="26"/>
+        <v>0.69068287037037035</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1253" s="1">
+        <f t="shared" si="26"/>
+        <v>0.69282407407407409</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1254" s="1">
+        <f t="shared" si="26"/>
+        <v>0.6947916666666667</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1255" s="1">
+        <f t="shared" si="26"/>
+        <v>0.77731481481481479</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1256" s="1">
+        <f t="shared" si="26"/>
+        <v>0.77968749999999998</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1257" s="1">
+        <f t="shared" si="26"/>
+        <v>0.7817708333333333</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1258" s="1">
+        <f t="shared" si="26"/>
+        <v>0.78454861111111107</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1259" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1260" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79484953703703698</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1261" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79699074074074072</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1262" s="1">
+        <f t="shared" si="26"/>
+        <v>0.79895833333333333</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1263" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88148148148148142</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1264" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88385416666666661</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1265" s="1">
+        <f t="shared" si="26"/>
+        <v>0.88593749999999993</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1266" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8887152777777777</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1267" s="1">
+        <f t="shared" si="26"/>
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1268" s="1">
+        <f t="shared" si="26"/>
+        <v>0.89901620370370361</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1269" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90115740740740735</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1270" s="1">
+        <f t="shared" si="26"/>
+        <v>0.90312499999999996</v>
+      </c>
+      <c r="C1270" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1271" s="1">
+        <f>B1159+(0.5/24)</f>
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1272" s="1">
+        <f t="shared" ref="B1272:B1335" si="27">B1160+(0.5/24)</f>
+        <v>0.23234953703703706</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1273" s="1">
+        <f t="shared" si="27"/>
+        <v>0.23449074074074078</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1274" s="1">
+        <f t="shared" si="27"/>
+        <v>0.23645833333333333</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1275" s="1">
+        <f t="shared" si="27"/>
+        <v>0.31898148148148148</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1276" s="1">
+        <f t="shared" si="27"/>
+        <v>0.32135416666666666</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1277" s="1">
+        <f t="shared" si="27"/>
+        <v>0.32343749999999999</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1278" s="1">
+        <f t="shared" si="27"/>
+        <v>0.32621527777777776</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1279" s="1">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1280" s="1">
+        <f t="shared" si="27"/>
+        <v>0.33651620370370372</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1281" s="1">
+        <f t="shared" si="27"/>
+        <v>0.33865740740740741</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1282" s="1">
+        <f t="shared" si="27"/>
+        <v>0.34062499999999996</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1283" s="1">
+        <f t="shared" si="27"/>
+        <v>0.42314814814814816</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1284" s="1">
+        <f t="shared" si="27"/>
+        <v>0.42552083333333335</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1285" s="1">
+        <f t="shared" si="27"/>
+        <v>0.42760416666666667</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1286" s="1">
+        <f t="shared" si="27"/>
+        <v>0.43038194444444444</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1287" s="1">
+        <f t="shared" si="27"/>
+        <v>0.4375</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1288" s="1">
+        <f t="shared" si="27"/>
+        <v>0.44068287037037041</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1289" s="1">
+        <f t="shared" si="27"/>
+        <v>0.44282407407407409</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1290" s="1">
+        <f t="shared" si="27"/>
+        <v>0.44479166666666664</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1291" s="1">
+        <f t="shared" si="27"/>
+        <v>0.5273148148148149</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1292" s="1">
+        <f t="shared" si="27"/>
+        <v>0.52968750000000009</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1293" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1293" s="1">
+        <f t="shared" si="27"/>
+        <v>0.53177083333333341</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1294" s="1">
+        <f t="shared" si="27"/>
+        <v>0.53454861111111118</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1295" s="1">
+        <f t="shared" si="27"/>
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1296" s="1">
+        <f t="shared" si="27"/>
+        <v>0.54484953703703709</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1297" s="1">
+        <f t="shared" si="27"/>
+        <v>0.54699074074074083</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1298" s="1">
+        <f t="shared" si="27"/>
+        <v>0.54895833333333333</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1299" s="1">
+        <f t="shared" si="27"/>
+        <v>0.63148148148148153</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1300" s="1">
+        <f t="shared" si="27"/>
+        <v>0.63385416666666672</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1301" s="1">
+        <f t="shared" si="27"/>
+        <v>0.63593750000000004</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1302" s="1">
+        <f t="shared" si="27"/>
+        <v>0.63871527777777781</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1303" s="1">
+        <f t="shared" si="27"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1304" s="1">
+        <f t="shared" si="27"/>
+        <v>0.64901620370370372</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1305" s="1">
+        <f t="shared" si="27"/>
+        <v>0.65115740740740746</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1306" s="1">
+        <f t="shared" si="27"/>
+        <v>0.65312499999999996</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1307" s="1">
+        <f t="shared" si="27"/>
+        <v>0.73564814814814816</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1308" s="1">
+        <f t="shared" si="27"/>
+        <v>0.73802083333333335</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1309" s="1">
+        <f t="shared" si="27"/>
+        <v>0.74010416666666667</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1310" s="1">
+        <f t="shared" si="27"/>
+        <v>0.74288194444444444</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1311" s="1">
+        <f t="shared" si="27"/>
+        <v>0.75</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1312" s="1">
+        <f t="shared" si="27"/>
+        <v>0.75318287037037035</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1313" s="1">
+        <f t="shared" si="27"/>
+        <v>0.75532407407407409</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1314" s="1">
+        <f t="shared" si="27"/>
+        <v>0.75729166666666659</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1315" s="1">
+        <f t="shared" si="27"/>
+        <v>0.83981481481481479</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1316" s="1">
+        <f t="shared" si="27"/>
+        <v>0.84218749999999998</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1317" s="1">
+        <f t="shared" si="27"/>
+        <v>0.8442708333333333</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1318" s="1">
+        <f t="shared" si="27"/>
+        <v>0.84704861111111107</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1319" s="1">
+        <f t="shared" si="27"/>
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1320" s="1">
+        <f t="shared" si="27"/>
+        <v>0.85734953703703698</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1321" s="1">
+        <f t="shared" si="27"/>
+        <v>0.85949074074074072</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1322" s="1">
+        <f t="shared" si="27"/>
+        <v>0.86145833333333321</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1323" s="1">
+        <f t="shared" si="27"/>
+        <v>0.94398148148148142</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1324" s="1">
+        <f t="shared" si="27"/>
+        <v>0.94635416666666661</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1325" s="1">
+        <f t="shared" si="27"/>
+        <v>0.94843749999999993</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1326" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9512152777777777</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1327" s="1">
+        <f t="shared" si="27"/>
+        <v>0.27731481481481479</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1328" s="1">
+        <f t="shared" si="27"/>
+        <v>0.27968749999999998</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1329" s="1">
+        <f t="shared" si="27"/>
+        <v>0.2817708333333333</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1330" s="1">
+        <f t="shared" si="27"/>
+        <v>0.28454861111111107</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1331" s="1">
+        <f t="shared" si="27"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1332" s="1">
+        <f t="shared" si="27"/>
+        <v>0.29484953703703703</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1333" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1333" s="1">
+        <f t="shared" si="27"/>
+        <v>0.29699074074074072</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1334" s="1">
+        <f t="shared" si="27"/>
+        <v>0.29895833333333333</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1335" s="1">
+        <f t="shared" si="27"/>
+        <v>0.38148148148148148</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1336" s="1">
+        <f t="shared" ref="B1336:B1399" si="28">B1224+(0.5/24)</f>
+        <v>0.38385416666666666</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1337" s="1">
+        <f t="shared" si="28"/>
+        <v>0.38593749999999999</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1338" s="1">
+        <f t="shared" si="28"/>
+        <v>0.38871527777777776</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1339" s="1">
+        <f t="shared" si="28"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1340" s="1">
+        <f t="shared" si="28"/>
+        <v>0.39901620370370372</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1341" s="1">
+        <f t="shared" si="28"/>
+        <v>0.40115740740740741</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1342" s="1">
+        <f t="shared" si="28"/>
+        <v>0.40312500000000001</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1343" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1343" s="1">
+        <f t="shared" si="28"/>
+        <v>0.48564814814814816</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1344" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1344" s="1">
+        <f t="shared" si="28"/>
+        <v>0.48802083333333335</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1345" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1345" s="1">
+        <f t="shared" si="28"/>
+        <v>0.49010416666666667</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1346" s="1">
+        <f t="shared" si="28"/>
+        <v>0.49288194444444444</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1347" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1347" s="1">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1348" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1348" s="1">
+        <f t="shared" si="28"/>
+        <v>0.50318287037037046</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1349" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1349" s="1">
+        <f t="shared" si="28"/>
+        <v>0.50532407407407409</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1350" s="1">
+        <f t="shared" si="28"/>
+        <v>0.5072916666666667</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1351" s="1">
+        <f t="shared" si="28"/>
+        <v>0.5898148148148149</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1352" s="1">
+        <f t="shared" si="28"/>
+        <v>0.59218750000000009</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1353" s="1">
+        <f t="shared" si="28"/>
+        <v>0.59427083333333341</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1354" s="1">
+        <f t="shared" si="28"/>
+        <v>0.59704861111111118</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1355" s="1">
+        <f t="shared" si="28"/>
+        <v>0.60416666666666674</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1356" s="1">
+        <f t="shared" si="28"/>
+        <v>0.60734953703703709</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1357" s="1">
+        <f t="shared" si="28"/>
+        <v>0.60949074074074083</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1358" s="1">
+        <f t="shared" si="28"/>
+        <v>0.61145833333333344</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1359" s="1">
+        <f t="shared" si="28"/>
+        <v>0.69398148148148153</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1360" s="1">
+        <f t="shared" si="28"/>
+        <v>0.69635416666666672</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1361" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1361" s="1">
+        <f t="shared" si="28"/>
+        <v>0.69843750000000004</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1362" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1362" s="1">
+        <f t="shared" si="28"/>
+        <v>0.70121527777777781</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1363" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1363" s="1">
+        <f t="shared" si="28"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1364" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1364" s="1">
+        <f t="shared" si="28"/>
+        <v>0.71151620370370372</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1365" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1365" s="1">
+        <f t="shared" si="28"/>
+        <v>0.71365740740740746</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1366" s="1">
+        <f t="shared" si="28"/>
+        <v>0.71562500000000007</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1367" s="1">
+        <f t="shared" si="28"/>
+        <v>0.79814814814814816</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1368" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1368" s="1">
+        <f t="shared" si="28"/>
+        <v>0.80052083333333335</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1369" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1369" s="1">
+        <f t="shared" si="28"/>
+        <v>0.80260416666666667</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1370" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1370" s="1">
+        <f t="shared" si="28"/>
+        <v>0.80538194444444444</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1371" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1371" s="1">
+        <f t="shared" si="28"/>
+        <v>0.8125</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1372" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1372" s="1">
+        <f t="shared" si="28"/>
+        <v>0.81568287037037035</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1373" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1373" s="1">
+        <f t="shared" si="28"/>
+        <v>0.81782407407407409</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1374" s="1">
+        <f t="shared" si="28"/>
+        <v>0.8197916666666667</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1375" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1375" s="1">
+        <f t="shared" si="28"/>
+        <v>0.90231481481481479</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1376" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1376" s="1">
+        <f t="shared" si="28"/>
+        <v>0.90468749999999998</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1377" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1377" s="1">
+        <f t="shared" si="28"/>
+        <v>0.9067708333333333</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1378" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1378" s="1">
+        <f t="shared" si="28"/>
+        <v>0.90954861111111107</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1379" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1379" s="1">
+        <f t="shared" si="28"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1380" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1380" s="1">
+        <f t="shared" si="28"/>
+        <v>0.91984953703703698</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1381" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1381" s="1">
+        <f t="shared" si="28"/>
+        <v>0.92199074074074072</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1382" s="1">
+        <f t="shared" si="28"/>
+        <v>0.92395833333333333</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1383" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1383" s="1">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1384" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1384" s="1">
+        <f t="shared" si="28"/>
+        <v>0.25318287037037041</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1385" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1385" s="1">
+        <f t="shared" si="28"/>
+        <v>0.25532407407407409</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1386" s="1">
+        <f t="shared" si="28"/>
+        <v>0.25729166666666664</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1387" s="1">
+        <f t="shared" si="28"/>
+        <v>0.33981481481481479</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1388" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1388" s="1">
+        <f t="shared" si="28"/>
+        <v>0.34218749999999998</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1389" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1389" s="1">
+        <f t="shared" si="28"/>
+        <v>0.3442708333333333</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1390" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1390" s="1">
+        <f t="shared" si="28"/>
+        <v>0.34704861111111107</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1391" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1391" s="1">
+        <f t="shared" si="28"/>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1392" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1392" s="1">
+        <f t="shared" si="28"/>
+        <v>0.35734953703703703</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1393" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1393" s="1">
+        <f t="shared" si="28"/>
+        <v>0.35949074074074072</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1394" s="1">
+        <f t="shared" si="28"/>
+        <v>0.36145833333333327</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1395" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1395" s="1">
+        <f t="shared" si="28"/>
+        <v>0.44398148148148148</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1396" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1396" s="1">
+        <f t="shared" si="28"/>
+        <v>0.44635416666666666</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1397" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1397" s="1">
+        <f t="shared" si="28"/>
+        <v>0.44843749999999999</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1398" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1398" s="1">
+        <f t="shared" si="28"/>
+        <v>0.45121527777777776</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1399" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1399" s="1">
+        <f t="shared" si="28"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1400" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1400" s="1">
+        <f t="shared" ref="B1400:B1438" si="29">B1288+(0.5/24)</f>
+        <v>0.46151620370370372</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1401" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1401" s="1">
+        <f t="shared" si="29"/>
+        <v>0.46365740740740741</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1402" s="1">
+        <f t="shared" si="29"/>
+        <v>0.46562499999999996</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1403" s="1">
+        <f t="shared" si="29"/>
+        <v>0.54814814814814827</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1404" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1404" s="1">
+        <f t="shared" si="29"/>
+        <v>0.55052083333333346</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1405" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1405" s="1">
+        <f t="shared" si="29"/>
+        <v>0.55260416666666679</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1406" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1406" s="1">
+        <f t="shared" si="29"/>
+        <v>0.55538194444444455</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1407" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1407" s="1">
+        <f t="shared" si="29"/>
+        <v>0.56250000000000011</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1408" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1408" s="1">
+        <f t="shared" si="29"/>
+        <v>0.56568287037037046</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1409" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1409" s="1">
+        <f t="shared" si="29"/>
+        <v>0.5678240740740742</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1410" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1410" s="1">
+        <f t="shared" si="29"/>
+        <v>0.5697916666666667</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1411" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1411" s="1">
+        <f t="shared" si="29"/>
+        <v>0.6523148148148149</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1412" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1412" s="1">
+        <f t="shared" si="29"/>
+        <v>0.65468750000000009</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1413" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1413" s="1">
+        <f t="shared" si="29"/>
+        <v>0.65677083333333341</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1414" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1414" s="1">
+        <f t="shared" si="29"/>
+        <v>0.65954861111111118</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1415" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1415" s="1">
+        <f t="shared" si="29"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1416" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1416" s="1">
+        <f t="shared" si="29"/>
+        <v>0.66984953703703709</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1417" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1417" s="1">
+        <f t="shared" si="29"/>
+        <v>0.67199074074074083</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1418" s="1">
+        <f t="shared" si="29"/>
+        <v>0.67395833333333333</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1419" s="1">
+        <f t="shared" si="29"/>
+        <v>0.75648148148148153</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1420" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1420" s="1">
+        <f t="shared" si="29"/>
+        <v>0.75885416666666672</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1421" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1421" s="1">
+        <f t="shared" si="29"/>
+        <v>0.76093750000000004</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1422" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1422" s="1">
+        <f t="shared" si="29"/>
+        <v>0.76371527777777781</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1423" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1423" s="1">
+        <f t="shared" si="29"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1424" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1424" s="1">
+        <f t="shared" si="29"/>
+        <v>0.77401620370370372</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1425" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1425" s="1">
+        <f t="shared" si="29"/>
+        <v>0.77615740740740746</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1426" s="1">
+        <f t="shared" si="29"/>
+        <v>0.77812499999999996</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1427" s="1">
+        <f t="shared" si="29"/>
+        <v>0.86064814814814816</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1428" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1428" s="1">
+        <f t="shared" si="29"/>
+        <v>0.86302083333333335</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1429" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1429" s="1">
+        <f t="shared" si="29"/>
+        <v>0.86510416666666667</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1430" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1430" s="1">
+        <f t="shared" si="29"/>
+        <v>0.86788194444444444</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1431" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1431" s="1">
+        <f t="shared" si="29"/>
+        <v>0.875</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1432" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1432" s="1">
+        <f t="shared" si="29"/>
+        <v>0.87818287037037035</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1433" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1433" s="1">
+        <f t="shared" si="29"/>
+        <v>0.88032407407407409</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1434" s="1">
+        <f t="shared" si="29"/>
+        <v>0.88229166666666659</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1435" s="1">
+        <f t="shared" si="29"/>
+        <v>0.96481481481481479</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1436" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1436" s="1">
+        <f t="shared" si="29"/>
+        <v>0.96718749999999998</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1437" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1437" s="1">
+        <f t="shared" si="29"/>
+        <v>0.9692708333333333</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1438" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1438" s="1">
+        <f t="shared" si="29"/>
+        <v>0.97204861111111107</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1439" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1439" s="1">
+        <v>0.27037037037037037</v>
+      </c>
+      <c r="C1439" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1440" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1440" s="1">
+        <v>0.27274305555555556</v>
+      </c>
+      <c r="C1440" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1441" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1441" s="1">
+        <v>0.27482638888888888</v>
+      </c>
+      <c r="C1441" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1442" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1442" s="1">
+        <v>0.27760416666666665</v>
+      </c>
+      <c r="C1442" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1443" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1443" s="1">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="C1443" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1444" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1444" s="1">
+        <v>0.28790509259259262</v>
+      </c>
+      <c r="C1444" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1445" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1445" s="1">
+        <v>0.2900462962962963</v>
+      </c>
+      <c r="C1445" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1446" s="1">
+        <v>0.29201388888888891</v>
+      </c>
+      <c r="C1446" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1447" s="1">
+        <f>B1439+(1.5/24)</f>
+        <v>0.33287037037037037</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1448" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1448" s="1">
+        <f t="shared" ref="B1448:B1511" si="30">B1440+(1.5/24)</f>
+        <v>0.33524305555555556</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1449" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1449" s="1">
+        <f t="shared" si="30"/>
+        <v>0.33732638888888888</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1450" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1450" s="1">
+        <f t="shared" si="30"/>
+        <v>0.34010416666666665</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1451" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1451" s="1">
+        <f t="shared" si="30"/>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1452" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1452" s="1">
+        <f t="shared" si="30"/>
+        <v>0.35040509259259262</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1453" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1453" s="1">
+        <f t="shared" si="30"/>
+        <v>0.3525462962962963</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1454" s="1">
+        <f t="shared" si="30"/>
+        <v>0.35451388888888891</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1455" s="1">
+        <f t="shared" si="30"/>
+        <v>0.39537037037037037</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1456" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1456" s="1">
+        <f t="shared" si="30"/>
+        <v>0.39774305555555556</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1457" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1457" s="1">
+        <f t="shared" si="30"/>
+        <v>0.39982638888888888</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1458" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1458" s="1">
+        <f t="shared" si="30"/>
+        <v>0.40260416666666665</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1459" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1459" s="1">
+        <f t="shared" si="30"/>
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1460" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1460" s="1">
+        <f t="shared" si="30"/>
+        <v>0.41290509259259262</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1461" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1461" s="1">
+        <f t="shared" si="30"/>
+        <v>0.4150462962962963</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1462" s="1">
+        <f t="shared" si="30"/>
+        <v>0.41701388888888891</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1463" s="1">
+        <f t="shared" si="30"/>
+        <v>0.45787037037037037</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1464" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1464" s="1">
+        <f t="shared" si="30"/>
+        <v>0.46024305555555556</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1465" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1465" s="1">
+        <f t="shared" si="30"/>
+        <v>0.46232638888888888</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1466" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1466" s="1">
+        <f t="shared" si="30"/>
+        <v>0.46510416666666665</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1467" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1467" s="1">
+        <f t="shared" si="30"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1468" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1468" s="1">
+        <f t="shared" si="30"/>
+        <v>0.47540509259259262</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1469" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1469" s="1">
+        <f t="shared" si="30"/>
+        <v>0.4775462962962963</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1470" s="1">
+        <f t="shared" si="30"/>
+        <v>0.47951388888888891</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1471" s="1">
+        <f t="shared" si="30"/>
+        <v>0.52037037037037037</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1472" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1472" s="1">
+        <f t="shared" si="30"/>
+        <v>0.52274305555555556</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1473" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1473" s="1">
+        <f t="shared" si="30"/>
+        <v>0.52482638888888888</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1474" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1474" s="1">
+        <f t="shared" si="30"/>
+        <v>0.52760416666666665</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1475" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1475" s="1">
+        <f t="shared" si="30"/>
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1476" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1476" s="1">
+        <f t="shared" si="30"/>
+        <v>0.53790509259259256</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1477" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1477" s="1">
+        <f t="shared" si="30"/>
+        <v>0.5400462962962963</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1478" s="1">
+        <f t="shared" si="30"/>
+        <v>0.54201388888888891</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1479" s="1">
+        <f t="shared" si="30"/>
+        <v>0.58287037037037037</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1480" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1480" s="1">
+        <f t="shared" si="30"/>
+        <v>0.58524305555555556</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1481" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1481" s="1">
+        <f t="shared" si="30"/>
+        <v>0.58732638888888888</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1482" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1482" s="1">
+        <f t="shared" si="30"/>
+        <v>0.59010416666666665</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1483" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1483" s="1">
+        <f t="shared" si="30"/>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1484" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1484" s="1">
+        <f t="shared" si="30"/>
+        <v>0.60040509259259256</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1485" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1485" s="1">
+        <f t="shared" si="30"/>
+        <v>0.6025462962962963</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1486" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1486" s="1">
+        <f t="shared" si="30"/>
+        <v>0.60451388888888891</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>355</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1487" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1487" s="1">
+        <f t="shared" si="30"/>
+        <v>0.64537037037037037</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1488" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1488" s="1">
+        <f t="shared" si="30"/>
+        <v>0.64774305555555556</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1489" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1489" s="1">
+        <f t="shared" si="30"/>
+        <v>0.64982638888888888</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1490" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1490" s="1">
+        <f t="shared" si="30"/>
+        <v>0.65260416666666665</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1491" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1491" s="1">
+        <f t="shared" si="30"/>
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1492" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1492" s="1">
+        <f t="shared" si="30"/>
+        <v>0.66290509259259256</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1493" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1493" s="1">
+        <f t="shared" si="30"/>
+        <v>0.6650462962962963</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1494" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1494" s="1">
+        <f t="shared" si="30"/>
+        <v>0.66701388888888891</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1495" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1495" s="1">
+        <f t="shared" si="30"/>
+        <v>0.70787037037037037</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1496" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1496" s="1">
+        <f t="shared" si="30"/>
+        <v>0.71024305555555556</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1497" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1497" s="1">
+        <f t="shared" si="30"/>
+        <v>0.71232638888888888</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1498" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1498" s="1">
+        <f t="shared" si="30"/>
+        <v>0.71510416666666665</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1499" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1499" s="1">
+        <f t="shared" si="30"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1500" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1500" s="1">
+        <f t="shared" si="30"/>
+        <v>0.72540509259259256</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1501" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1501" s="1">
+        <f t="shared" si="30"/>
+        <v>0.7275462962962963</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1502" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1502" s="1">
+        <f t="shared" si="30"/>
+        <v>0.72951388888888891</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1503" s="1">
+        <f t="shared" si="30"/>
+        <v>0.77037037037037037</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1504" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1504" s="1">
+        <f t="shared" si="30"/>
+        <v>0.77274305555555556</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1505" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1505" s="1">
+        <f t="shared" si="30"/>
+        <v>0.77482638888888888</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1506" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1506" s="1">
+        <f t="shared" si="30"/>
+        <v>0.77760416666666665</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1507" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1507" s="1">
+        <f t="shared" si="30"/>
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1508" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1508" s="1">
+        <f t="shared" si="30"/>
+        <v>0.78790509259259256</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1509" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1509" s="1">
+        <f t="shared" si="30"/>
+        <v>0.7900462962962963</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1510" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1510" s="1">
+        <f t="shared" si="30"/>
+        <v>0.79201388888888891</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1511" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1511" s="1">
+        <f t="shared" si="30"/>
+        <v>0.83287037037037037</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1512" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1512" s="1">
+        <f t="shared" ref="B1512:B1526" si="31">B1504+(1.5/24)</f>
+        <v>0.83524305555555556</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1513" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1513" s="1">
+        <f t="shared" si="31"/>
+        <v>0.83732638888888888</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1514" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1514" s="1">
+        <f t="shared" si="31"/>
+        <v>0.84010416666666665</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1515" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1515" s="1">
+        <f t="shared" si="31"/>
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1516" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1516" s="1">
+        <f t="shared" si="31"/>
+        <v>0.85040509259259256</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1517" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1517" s="1">
+        <f t="shared" si="31"/>
+        <v>0.8525462962962963</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1518" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1518" s="1">
+        <f t="shared" si="31"/>
+        <v>0.85451388888888891</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1519" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1519" s="1">
+        <f t="shared" si="31"/>
+        <v>0.89537037037037037</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1520" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1520" s="1">
+        <f t="shared" si="31"/>
+        <v>0.89774305555555556</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1521" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1521" s="1">
+        <f t="shared" si="31"/>
+        <v>0.89982638888888888</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1522" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1522" s="1">
+        <f t="shared" si="31"/>
+        <v>0.90260416666666665</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1523" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1523" s="1">
+        <f t="shared" si="31"/>
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1524" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1524" s="1">
+        <f t="shared" si="31"/>
+        <v>0.91290509259259256</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1525" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1525" s="1">
+        <f t="shared" si="31"/>
+        <v>0.9150462962962963</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1526" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1526" s="1">
+        <f t="shared" si="31"/>
+        <v>0.91701388888888891</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>